--- a/table/dredge/in.situ.TOU_sp_d.xlsx
+++ b/table/dredge/in.situ.TOU_sp_d.xlsx
@@ -365,32 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cruise:Depth</t>
+          <t>Depth:DRM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cruise:DRM</t>
+          <t>Depth:Month</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Depth:DRM</t>
+          <t>DRM:Month</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -436,20 +436,20 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>12.91990777828678</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>12.91990777828679</v>
+      </c>
+      <c r="B2">
+        <v>-2.046248793187126</v>
       </c>
       <c r="C2">
-        <v>-2.046248793187127</v>
-      </c>
-      <c r="D2">
-        <v>-2.176953027767408</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>-2.176953027767409</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -483,24 +483,24 @@
       <c r="A3">
         <v>13.58899209526263</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B3">
+        <v>-1.515338749643475</v>
       </c>
       <c r="C3">
-        <v>-1.515338749643479</v>
-      </c>
-      <c r="D3">
         <v>-1.343390044136112</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G3">
-        <v>1.847617620814607</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>1.847617620814608</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H3">
         <v>0.6501960837998955</v>
@@ -515,13 +515,13 @@
         <v>208.3172544918196</v>
       </c>
       <c r="L3">
-        <v>1.106901876489332</v>
+        <v>1.106901876489331</v>
       </c>
       <c r="M3">
-        <v>0.1909227713804207</v>
+        <v>0.1909227713804208</v>
       </c>
       <c r="N3">
-        <v>0.5854175807998761</v>
+        <v>0.585417580799876</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -529,18 +529,18 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>13.15301858019829</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>13.1530185801983</v>
+      </c>
+      <c r="B4">
+        <v>-4.37180474184414</v>
       </c>
       <c r="C4">
-        <v>-4.371804741844139</v>
-      </c>
-      <c r="D4">
-        <v>-2.83374090303382</v>
+        <v>-2.833740903033822</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H4">
         <v>0.568055878957775</v>
@@ -571,15 +571,15 @@
       <c r="A5">
         <v>12.92705544393521</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>-1.097475592281952</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -600,7 +600,7 @@
         <v>2.828570522731241</v>
       </c>
       <c r="M5">
-        <v>0.08072389957981174</v>
+        <v>0.08072389957981176</v>
       </c>
       <c r="N5">
         <v>0.5084251397947932</v>
@@ -613,23 +613,23 @@
       <c r="A6">
         <v>12.91747654595654</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B6">
+        <v>-2.368967872894364</v>
       </c>
       <c r="C6">
-        <v>-2.368967872894365</v>
-      </c>
-      <c r="D6">
-        <v>-2.917429547357892</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>-2.917429547357891</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -650,7 +650,7 @@
         <v>2.844875481851034</v>
       </c>
       <c r="M6">
-        <v>0.08006847493661133</v>
+        <v>0.08006847493661134</v>
       </c>
       <c r="N6">
         <v>0.5629980480952037</v>
@@ -663,18 +663,18 @@
       <c r="A7">
         <v>13.12721995940888</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B7">
+        <v>-4.689977246746887</v>
       </c>
       <c r="C7">
-        <v>-4.689977246746887</v>
-      </c>
-      <c r="D7">
-        <v>-4.000685560660523</v>
-      </c>
-      <c r="F7" t="inlineStr">
+        <v>-4.000685560660525</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -689,10 +689,10 @@
         <v>-97.89389076840851</v>
       </c>
       <c r="K7">
-        <v>211.0185507675863</v>
+        <v>211.0185507675862</v>
       </c>
       <c r="L7">
-        <v>3.808198152255955</v>
+        <v>3.808198152255954</v>
       </c>
       <c r="M7">
         <v>0.04946279990998134</v>
@@ -708,19 +708,19 @@
       <c r="A8">
         <v>13.46683146988691</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B8">
+        <v>-4.349391754018686</v>
       </c>
       <c r="C8">
-        <v>-4.349391754018686</v>
-      </c>
-      <c r="D8">
-        <v>-2.528276618960589</v>
-      </c>
-      <c r="G8">
-        <v>0.8084667026455538</v>
+        <v>-2.52827661896059</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>0.808466702645554</v>
       </c>
       <c r="H8">
         <v>0.5730262079701429</v>
@@ -751,32 +751,32 @@
       <c r="A9">
         <v>13.55538407809303</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B9">
+        <v>-1.740688236563396</v>
       </c>
       <c r="C9">
-        <v>-1.740688236563398</v>
-      </c>
-      <c r="D9">
         <v>-1.841999608292806</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>1.758970135312606</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="G9">
-        <v>1.758970135312608</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H9">
-        <v>0.6518858270538001</v>
+        <v>0.6518858270538</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -791,7 +791,7 @@
         <v>4.467107662236685</v>
       </c>
       <c r="M9">
-        <v>0.03557937496615351</v>
+        <v>0.03557937496615352</v>
       </c>
       <c r="N9">
         <v>0.5715517871431386</v>
@@ -804,10 +804,10 @@
       <c r="A10">
         <v>15.59092151141022</v>
       </c>
+      <c r="B10">
+        <v>-4.624341065898574</v>
+      </c>
       <c r="C10">
-        <v>-4.624341065898574</v>
-      </c>
-      <c r="D10">
         <v>-2.726464850910515</v>
       </c>
       <c r="H10">
@@ -826,7 +826,7 @@
         <v>5.424835833756674</v>
       </c>
       <c r="M10">
-        <v>0.02204094873307985</v>
+        <v>0.02204094873307984</v>
       </c>
       <c r="N10">
         <v>0.4405000283737545</v>
@@ -839,14 +839,14 @@
       <c r="A11">
         <v>15.68182163751446</v>
       </c>
+      <c r="B11">
+        <v>-4.495683064867013</v>
+      </c>
       <c r="C11">
-        <v>-4.495683064867013</v>
-      </c>
-      <c r="D11">
         <v>-1.989216486691722</v>
       </c>
-      <c r="G11">
-        <v>2.032559186829855</v>
+      <c r="E11">
+        <v>2.032559186829854</v>
       </c>
       <c r="H11">
         <v>0.5144754606522847</v>
@@ -864,7 +864,7 @@
         <v>5.668407503656567</v>
       </c>
       <c r="M11">
-        <v>0.01951368851393098</v>
+        <v>0.01951368851393099</v>
       </c>
       <c r="N11">
         <v>0.4642487841680383</v>
@@ -877,24 +877,24 @@
       <c r="A12">
         <v>13.39312014987129</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B12">
+        <v>-4.654095223407779</v>
       </c>
       <c r="C12">
-        <v>-4.654095223407778</v>
-      </c>
-      <c r="D12">
-        <v>-3.680889026665229</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>0.6814816759814253</v>
+        <v>-3.680889026665232</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>0.6814816759814242</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H12">
         <v>0.5845695223333477</v>
@@ -925,13 +925,13 @@
       <c r="A13">
         <v>13.29039552417988</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C13">
+      <c r="B13">
         <v>-4.246929022316333</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H13">
         <v>0.4302380861437589</v>
@@ -943,13 +943,13 @@
         <v>-102.968083284461</v>
       </c>
       <c r="K13">
-        <v>215.3647379974935</v>
+        <v>215.3647379974934</v>
       </c>
       <c r="L13">
         <v>8.154385382163156</v>
       </c>
       <c r="M13">
-        <v>0.005630100287908303</v>
+        <v>0.005630100287908304</v>
       </c>
       <c r="N13">
         <v>0.3922539585533429</v>
@@ -962,8 +962,8 @@
       <c r="A14">
         <v>15.59092151141022</v>
       </c>
-      <c r="C14">
-        <v>-4.490214787849861</v>
+      <c r="B14">
+        <v>-4.49021478784986</v>
       </c>
       <c r="H14">
         <v>0.3476153819398837</v>
@@ -981,7 +981,7 @@
         <v>10.02211873636739</v>
       </c>
       <c r="M14">
-        <v>0.002212804195672059</v>
+        <v>0.00221280419567206</v>
       </c>
       <c r="N14">
         <v>0.3265707168411703</v>
@@ -994,13 +994,13 @@
       <c r="A15">
         <v>12.65888072926809</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>-2.642935265258227</v>
+      <c r="C15">
+        <v>-2.642935265258226</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H15">
         <v>0.2431787733633266</v>
@@ -1018,7 +1018,7 @@
         <v>17.52336544145078</v>
       </c>
       <c r="M15">
-        <v>5.20077374412231e-005</v>
+        <v>5.200773744122311e-05</v>
       </c>
       <c r="N15">
         <v>0.1927240249208817</v>
@@ -1031,13 +1031,13 @@
       <c r="A16">
         <v>12.80044399257556</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H16">
-        <v>0.1230646296831</v>
+        <v>0.1230646296830999</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1052,10 +1052,10 @@
         <v>19.78348582229756</v>
       </c>
       <c r="M16">
-        <v>1.679921760234023e-005</v>
+        <v>1.679921760234023e-05</v>
       </c>
       <c r="N16">
-        <v>0.0947763919309419</v>
+        <v>0.09477639193094189</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1065,15 +1065,15 @@
       <c r="A17">
         <v>12.70339925113068</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>-1.811790456648809</v>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C17">
+        <v>-1.811790456648805</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -1094,7 +1094,7 @@
         <v>19.98137568809395</v>
       </c>
       <c r="M17">
-        <v>1.521660675518298e-005</v>
+        <v>1.521660675518298e-05</v>
       </c>
       <c r="N17">
         <v>0.1733377461664221</v>
@@ -1107,7 +1107,7 @@
       <c r="A18">
         <v>15.59092151141022</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>-2.498974056231954</v>
       </c>
       <c r="H18">
@@ -1126,7 +1126,7 @@
         <v>20.35783497158343</v>
       </c>
       <c r="M18">
-        <v>1.260580899913714e-005</v>
+        <v>1.260580899913714e-05</v>
       </c>
       <c r="N18">
         <v>0.07888350700331848</v>
@@ -1155,7 +1155,7 @@
         <v>21.68952506683937</v>
       </c>
       <c r="M19">
-        <v>6.477357874265095e-006</v>
+        <v>6.477357874265096e-06</v>
       </c>
       <c r="N19">
         <v>0</v>
